--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Cp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Cp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8ACA85-DFD0-45E8-9ECE-9B13F6E30CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C946A2-B9AF-41BA-8EE6-0E57281474A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -600,17 +600,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>繳息迄日(未繳:撥款日)，YYYYMMDD 例：20100108</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>NVL(M."CustId",' ')</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CASE WHEN NVL(M."PrevPayIntDate",0) = 0 THEN NVL(M."DrawdownDate",0)
-     ELSE NVL(M."PrevPayIntDate",0)
-END</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -647,6 +637,14 @@
   <si>
     <t>Usp_L7_LoanIfrs9Cp_Upd</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款日，YYYYMMDD 例：20100108</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVL(M."DrawdownDate",0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1634,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
@@ -1656,10 +1654,10 @@
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="4"/>
@@ -1831,7 +1829,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="59"/>
       <c r="H11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1899,7 +1897,7 @@
         <v>46</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.799999999999997">
@@ -1923,7 +1921,7 @@
         <v>68</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="37.799999999999997">
@@ -1947,10 +1945,10 @@
         <v>81</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="37.799999999999997">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="8">
         <v>9</v>
       </c>
@@ -1968,10 +1966,10 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="59" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2560,7 +2558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2585,7 +2583,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>57</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Cp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Cp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C946A2-B9AF-41BA-8EE6-0E57281474A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A3E7F-61FF-4044-AEE4-A4B2C72FCAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -644,6 +644,13 @@
   </si>
   <si>
     <t>NVL(M."DrawdownDate",0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:按期繳息(到期還本)
+2:平均攤還本息
+3:平均攤還本金
+4:到期繳息還本</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1894,7 +1901,7 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="59" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H14" s="62" t="s">
         <v>85</v>
